--- a/资料/合同资料-TO-何斌(5).xlsx
+++ b/资料/合同资料-TO-何斌(5).xlsx
@@ -10,7 +10,7 @@
     <sheet name="合同汇总" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">合同汇总!$A$1:$Y$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">合同汇总!$A$1:$X$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>120037</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,18 +146,12 @@
     <t>合同类别</t>
   </si>
   <si>
-    <t>合同金额</t>
-  </si>
-  <si>
     <t>应付款金额</t>
   </si>
   <si>
     <t>应收款金额</t>
   </si>
   <si>
-    <t>印花税缴纳</t>
-  </si>
-  <si>
     <t>签约对象</t>
   </si>
   <si>
@@ -209,34 +203,12 @@
     <t>预算内</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预算类别：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-  </si>
-  <si>
     <t>总价金额(元)</t>
   </si>
   <si>
     <t>半年</t>
   </si>
   <si>
-    <t>是否超合同结算</t>
-  </si>
-  <si>
     <t>已购买</t>
   </si>
   <si>
@@ -258,33 +230,6 @@
     <t>预算外</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>剩余金额：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
     <t>单价金额(元)</t>
   </si>
   <si>
@@ -418,22 +363,16 @@
   </si>
   <si>
     <t>选择</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>支付金额</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>实际付款
 金额</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择：已支付
-未支付
-超合同结算</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -449,52 +388,75 @@
       </rPr>
       <t>（合同金额）</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>实收金额(元)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>最后已归档后</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>询价比价</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>供应商的确定方式</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>预算</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>合同编号</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">质保金金额    </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>质保期</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税缴纳</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同金额</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择：已支付、未支付、超合同结算</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>选择--&gt;输入金额</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>质保期</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算类别</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余金额</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否超合同结算</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -546,12 +508,6 @@
     <font>
       <sz val="10"/>
       <color indexed="49"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -610,8 +566,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,20 +611,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -843,17 +794,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -902,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,9 +900,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,25 +963,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,7 +1017,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1122,34 +1044,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,82 +1080,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,23 +1104,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -1617,26 +1497,26 @@
     <col min="5" max="5" width="10" style="6" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="89" customWidth="1"/>
-    <col min="11" max="11" width="9" style="89" customWidth="1"/>
-    <col min="12" max="12" width="6.375" style="89" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="6" customWidth="1"/>
-    <col min="14" max="15" width="9" style="89" customWidth="1"/>
-    <col min="16" max="16" width="28.5" style="89" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="89" customWidth="1"/>
-    <col min="18" max="19" width="9.5" style="7" customWidth="1"/>
-    <col min="20" max="20" width="9" style="7" customWidth="1"/>
-    <col min="21" max="22" width="8.625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="10.5" style="6" customWidth="1"/>
-    <col min="24" max="24" width="7.375" customWidth="1"/>
-    <col min="25" max="25" width="8.875" customWidth="1"/>
-    <col min="26" max="26" width="5.75" style="8" customWidth="1"/>
-    <col min="27" max="27" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="6" customWidth="1"/>
+    <col min="14" max="14" width="16.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5" style="7" customWidth="1"/>
+    <col min="19" max="19" width="9" style="7" customWidth="1"/>
+    <col min="20" max="21" width="8.625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="6" customWidth="1"/>
+    <col min="23" max="23" width="7.375" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="25" max="25" width="5.75" style="8" customWidth="1"/>
+    <col min="26" max="26" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1653,639 +1533,621 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="110" t="s">
+      <c r="K1" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="110"/>
-      <c r="L1" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="110" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="R1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="S1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="T1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="U1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="V1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="W1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="49" t="s">
+      <c r="X1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="50" t="s">
+      <c r="Y1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="72" t="s">
+      <c r="Z1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="46" t="s">
+      <c r="AA1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="73" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="H2" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="76"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="70"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="G3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="H3" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="K3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="70"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="C4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="90" t="s">
+      <c r="D4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="42" t="s">
+      <c r="E4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" s="97" t="s">
+      <c r="F4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="76"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="N4" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="75"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" ht="48">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="81"/>
-    </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="76"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="70"/>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>54</v>
+      <c r="B6" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="21"/>
+        <v>83</v>
+      </c>
+      <c r="G6" s="20"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="76"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="70"/>
     </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>58</v>
+      <c r="B7" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="28" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="G7" s="20"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="76"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="70"/>
     </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>63</v>
+      <c r="B8" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="D8" s="85"/>
+      <c r="E8" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="76"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="70"/>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>67</v>
+      <c r="B9" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="76"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="70"/>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>71</v>
+      <c r="B10" s="28" t="s">
+        <v>66</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="D10" s="85"/>
+      <c r="E10" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="32"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="76"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="70"/>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="111"/>
+      <c r="D11" s="85"/>
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="42" t="s">
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="70"/>
+    </row>
+    <row r="12" spans="1:27" s="3" customFormat="1" ht="27" customHeight="1">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="81"/>
+    </row>
+    <row r="13" spans="1:27" ht="27" customHeight="1">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+    </row>
+    <row r="14" spans="1:27" ht="30" customHeight="1">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="76"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
     </row>
-    <row r="12" spans="1:28" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="87"/>
-    </row>
-    <row r="13" spans="1:28" ht="27" customHeight="1">
-      <c r="A13" s="24">
-        <v>12</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-    </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1">
-      <c r="A14" s="30">
-        <v>13</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="118" t="s">
+    <row r="15" spans="1:27" ht="21" customHeight="1">
+      <c r="P15" s="95" t="s">
         <v>82</v>
-      </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-    </row>
-    <row r="15" spans="1:28" ht="21" customHeight="1">
-      <c r="Q15" s="109" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="D5:D12"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.27500000000000002" top="0.51180555555555596" bottom="0.55000000000000004" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/资料/合同资料-TO-何斌(5).xlsx
+++ b/资料/合同资料-TO-何斌(5).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23010" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="23010" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="合同汇总" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>半年</t>
   </si>
   <si>
-    <t>已购买</t>
-  </si>
-  <si>
     <t>三方移交</t>
   </si>
   <si>
@@ -363,16 +360,12 @@
   </si>
   <si>
     <t>选择</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付金额</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>实际付款
 金额</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -388,67 +381,87 @@
       </rPr>
       <t>（合同金额）</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后已归档后</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价比价</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商的确定方式</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">质保金金额    </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>质保期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税缴纳</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同金额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择：已支付、未支付、超合同结算</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择--&gt;输入金额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算类别</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余金额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>实收金额(元)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后已归档后</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>询价比价</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商的确定方式</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">质保金金额    </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>质保期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>印花税缴纳</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同金额</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择：已支付、未支付、超合同结算</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择--&gt;输入金额</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算类别</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余金额</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购买</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>是否超合同结算</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>应支付金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（合同金额）</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -458,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -495,12 +508,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="14"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -508,13 +515,6 @@
     <font>
       <sz val="10"/>
       <color indexed="49"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -573,6 +573,44 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -842,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,9 +959,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,9 +1001,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -978,19 +1010,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,7 +1049,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1047,22 +1079,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,7 +1103,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,7 +1112,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
@@ -1098,10 +1130,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,7 +1145,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,20 +1157,44 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N17:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -1497,26 +1553,25 @@
     <col min="5" max="5" width="10" style="6" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="6" customWidth="1"/>
+    <col min="13" max="13" width="23.5" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.75" style="6" customWidth="1"/>
     <col min="15" max="15" width="24" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="93" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.5" style="7" customWidth="1"/>
     <col min="19" max="19" width="9" style="7" customWidth="1"/>
     <col min="20" max="21" width="8.625" style="6" customWidth="1"/>
     <col min="22" max="22" width="10.5" style="6" customWidth="1"/>
     <col min="23" max="23" width="7.375" customWidth="1"/>
     <col min="24" max="24" width="8.875" customWidth="1"/>
-    <col min="25" max="25" width="5.75" style="8" customWidth="1"/>
-    <col min="26" max="26" width="5.75" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="35.1" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1533,69 +1588,69 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="82"/>
+      <c r="I1" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="89" t="s">
+      <c r="M1" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="X1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="Z1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="67" t="s">
+      <c r="AA1" s="65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1617,537 +1672,539 @@
       <c r="G2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="97" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="70"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="68"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="L3" s="38"/>
+      <c r="M3" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="70"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="68"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="30.75" customHeight="1">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="18"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="38"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="N4" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="92"/>
+      <c r="Q4" s="90"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="75"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="73"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="E5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="52"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="50"/>
       <c r="W5" s="15"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="76"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="74"/>
       <c r="Z5" s="15"/>
-      <c r="AA5" s="70"/>
+      <c r="AA5" s="68"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="83"/>
+      <c r="E6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="29" t="s">
-        <v>51</v>
-      </c>
       <c r="F6" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="52"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="50"/>
       <c r="W6" s="15"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="76"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="74"/>
       <c r="Z6" s="15"/>
-      <c r="AA6" s="70"/>
+      <c r="AA6" s="68"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="83"/>
+      <c r="E7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="52"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="50"/>
       <c r="W7" s="15"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="76"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="74"/>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="70"/>
+      <c r="AA7" s="68"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="28" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="29" t="s">
-        <v>60</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="20"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="52"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="50"/>
       <c r="W8" s="15"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="76"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="74"/>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="70"/>
+      <c r="AA8" s="68"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="27" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="59"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="57"/>
       <c r="W9" s="15"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="76"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="74"/>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="70"/>
+      <c r="AA9" s="68"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="59"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="57"/>
       <c r="W10" s="15"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="76"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="74"/>
       <c r="Z10" s="15"/>
-      <c r="AA10" s="70"/>
+      <c r="AA10" s="68"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="35.1" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="85"/>
+      <c r="D11" s="83"/>
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="59"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="57"/>
       <c r="W11" s="15"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="76"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="74"/>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="70"/>
+      <c r="AA11" s="68"/>
     </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="12" spans="1:27" s="3" customFormat="1" ht="35.1" customHeight="1">
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="81"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="79"/>
     </row>
-    <row r="13" spans="1:27" ht="27" customHeight="1">
+    <row r="13" spans="1:27" ht="35.1" customHeight="1">
       <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39" t="s">
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="38"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+    </row>
+    <row r="14" spans="1:27" ht="35.1" customHeight="1">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-    </row>
-    <row r="14" spans="1:27" ht="30" customHeight="1">
-      <c r="A14" s="29">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
     </row>
     <row r="15" spans="1:27" ht="21" customHeight="1">
-      <c r="P15" s="95" t="s">
-        <v>82</v>
+      <c r="J15" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="98" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="N13:N14"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="D5:D12"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.27500000000000002" top="0.51180555555555596" bottom="0.55000000000000004" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
